--- a/raw_data/20200818_saline/20200818_Sensor0_Test_20.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_20.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E92456-FFD9-4EFC-9F5A-36ABCD9E77ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>17102.927618</v>
+        <v>17102.927618000002</v>
       </c>
       <c r="B2" s="1">
         <v>4.750813</v>
       </c>
       <c r="C2" s="1">
-        <v>898.971000</v>
+        <v>898.971</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.119000</v>
+        <v>-195.119</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>17113.022160</v>
+        <v>17113.02216</v>
       </c>
       <c r="G2" s="1">
-        <v>4.753617</v>
+        <v>4.7536170000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>915.871000</v>
+        <v>915.87099999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.903000</v>
+        <v>-164.90299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>17123.148979</v>
+        <v>17123.148979000001</v>
       </c>
       <c r="L2" s="1">
-        <v>4.756430</v>
+        <v>4.7564299999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>937.523000</v>
+        <v>937.52300000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.389000</v>
+        <v>-118.389</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>17133.653750</v>
+        <v>17133.653750000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.759348</v>
+        <v>4.7593480000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>943.578000</v>
+        <v>943.57799999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.093000</v>
+        <v>-103.093</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>17144.266151</v>
       </c>
       <c r="V2" s="1">
-        <v>4.762296</v>
+        <v>4.7622960000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>949.791000</v>
+        <v>949.79100000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.468600</v>
+        <v>-89.468599999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>17154.675228</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.765188</v>
+        <v>4.7651880000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>956.809000</v>
+        <v>956.80899999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.225200</v>
+        <v>-80.225200000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>17165.264780</v>
+        <v>17165.264780000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.768129</v>
+        <v>4.7681290000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>961.787000</v>
+        <v>961.78700000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.973000</v>
+        <v>-79.972999999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>17175.892558</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.771081</v>
+        <v>4.7710809999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.716000</v>
+        <v>969.71600000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.186800</v>
+        <v>-88.186800000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>17186.295684</v>
+        <v>17186.295684000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.773971</v>
+        <v>4.7739710000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.015000</v>
+        <v>979.01499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.436000</v>
+        <v>-103.43600000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>17197.599473</v>
+        <v>17197.599472999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.777111</v>
+        <v>4.7771109999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.534000</v>
+        <v>990.53399999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.395000</v>
+        <v>-125.395</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>17208.638434</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.780177</v>
+        <v>4.7801770000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.394000</v>
+        <v>-144.39400000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>17219.283572</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.783134</v>
+        <v>4.7831340000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG2" s="1">
-        <v>-230.413000</v>
+        <v>-230.41300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>17230.733221</v>
+        <v>17230.733220999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.786315</v>
+        <v>4.7863150000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL2" s="1">
-        <v>-368.411000</v>
+        <v>-368.411</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>17241.504858</v>
@@ -676,318 +1092,318 @@
         <v>4.789307</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.090000</v>
+        <v>1259.0899999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.753000</v>
+        <v>-581.75300000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>17252.586487</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.792385</v>
+        <v>4.7923850000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.140000</v>
+        <v>1408.14</v>
       </c>
       <c r="BV2" s="1">
-        <v>-809.625000</v>
+        <v>-809.625</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>17263.046587</v>
+        <v>17263.046587000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.795291</v>
+        <v>4.7952909999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1572.800000</v>
+        <v>1572.8</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1047.850000</v>
+        <v>-1047.8499999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>17274.005196</v>
+        <v>17274.005195999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.798335</v>
+        <v>4.7983349999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1988.000000</v>
+        <v>1988</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1602.490000</v>
+        <v>-1602.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>17103.331358</v>
+        <v>17103.331357999999</v>
       </c>
       <c r="B3" s="1">
-        <v>4.750925</v>
+        <v>4.7509249999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>899.100000</v>
+        <v>899.1</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.297000</v>
+        <v>-195.297</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>17113.433840</v>
+        <v>17113.433840000002</v>
       </c>
       <c r="G3" s="1">
-        <v>4.753732</v>
+        <v>4.7537320000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>915.992000</v>
+        <v>915.99199999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.474000</v>
+        <v>-165.47399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>17123.563138</v>
+        <v>17123.563138000001</v>
       </c>
       <c r="L3" s="1">
         <v>4.756545</v>
       </c>
       <c r="M3" s="1">
-        <v>937.232000</v>
+        <v>937.23199999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.381000</v>
+        <v>-118.381</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>17134.067414</v>
+        <v>17134.067414000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.759463</v>
+        <v>4.7594630000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>943.587000</v>
+        <v>943.58699999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>17144.612390</v>
+        <v>17144.612389999998</v>
       </c>
       <c r="V3" s="1">
-        <v>4.762392</v>
+        <v>4.7623920000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>949.778000</v>
+        <v>949.77800000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.453000</v>
+        <v>-89.453000000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>17155.043721</v>
+        <v>17155.043720999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.765290</v>
+        <v>4.7652900000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>956.955000</v>
+        <v>956.95500000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.140700</v>
+        <v>-80.140699999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>17165.645708</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.768235</v>
+        <v>4.7682349999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>961.799000</v>
+        <v>961.79899999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.034600</v>
+        <v>-80.034599999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>17176.429726</v>
+        <v>17176.429725999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.771230</v>
+        <v>4.7712300000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.733000</v>
+        <v>969.73299999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.181500</v>
+        <v>-88.1815</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>17187.054526</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.774182</v>
+        <v>4.7741819999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.024000</v>
+        <v>979.024</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>17197.990849</v>
+        <v>17197.990849000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.777220</v>
+        <v>4.7772199999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.517000</v>
+        <v>990.51700000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.390000</v>
+        <v>-125.39</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>17209.039202</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.780289</v>
+        <v>4.7802889999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.200000</v>
+        <v>1000.2</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.407000</v>
+        <v>-144.40700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>17219.654085</v>
+        <v>17219.654084999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.783237</v>
+        <v>4.7832369999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1045.940000</v>
+        <v>1045.94</v>
       </c>
       <c r="BG3" s="1">
-        <v>-230.411000</v>
+        <v>-230.411</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>17231.427124</v>
+        <v>17231.427124000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.786508</v>
+        <v>4.7865080000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1126.230000</v>
+        <v>1126.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-368.376000</v>
+        <v>-368.37599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>17242.252806</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.789515</v>
+        <v>4.7895149999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.090000</v>
+        <v>1259.0899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.772000</v>
+        <v>-581.77200000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>17252.746168</v>
+        <v>17252.746168000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.792429</v>
+        <v>4.7924290000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.300000</v>
+        <v>1408.3</v>
       </c>
       <c r="BV3" s="1">
-        <v>-809.528000</v>
+        <v>-809.52800000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>17263.508857</v>
+        <v>17263.508857000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.795419</v>
+        <v>4.7954189999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1572.680000</v>
+        <v>1572.68</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1047.850000</v>
+        <v>-1047.8499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>17274.597419</v>
+        <v>17274.597419000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.798499</v>
+        <v>4.7984989999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>1989.540000</v>
+        <v>1989.54</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1603.840000</v>
+        <v>-1603.84</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>17103.751933</v>
       </c>
@@ -995,238 +1411,238 @@
         <v>4.751042</v>
       </c>
       <c r="C4" s="1">
-        <v>899.077000</v>
+        <v>899.077</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.165000</v>
+        <v>-195.16499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>17113.748832</v>
+        <v>17113.748832000001</v>
       </c>
       <c r="G4" s="1">
         <v>4.753819</v>
       </c>
       <c r="H4" s="1">
-        <v>915.561000</v>
+        <v>915.56100000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.311000</v>
+        <v>-165.31100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>17123.913811</v>
+        <v>17123.913810999999</v>
       </c>
       <c r="L4" s="1">
-        <v>4.756643</v>
+        <v>4.7566430000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>937.362000</v>
+        <v>937.36199999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.323000</v>
+        <v>-118.32299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>17134.415108</v>
+        <v>17134.415108000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.759560</v>
+        <v>4.7595599999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>943.626000</v>
+        <v>943.62599999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>17144.958071</v>
+        <v>17144.958071000001</v>
       </c>
       <c r="V4" s="1">
-        <v>4.762488</v>
+        <v>4.7624880000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>949.725000</v>
+        <v>949.72500000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.465000</v>
+        <v>-89.465000000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>17155.394393</v>
+        <v>17155.394392999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.765387</v>
+        <v>4.7653869999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>956.839000</v>
+        <v>956.83900000000006</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.131400</v>
+        <v>-80.131399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>17166.331712</v>
+        <v>17166.331711999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.768425</v>
+        <v>4.7684249999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>961.819000</v>
+        <v>961.81899999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.028200</v>
+        <v>-80.028199999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>17176.805196</v>
+        <v>17176.805196000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.771335</v>
+        <v>4.7713349999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.695000</v>
+        <v>969.69500000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.169400</v>
+        <v>-88.169399999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>17187.415118</v>
+        <v>17187.415118000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.774282</v>
+        <v>4.7742820000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.029000</v>
+        <v>979.029</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.434000</v>
+        <v>-103.434</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>17198.357857</v>
+        <v>17198.357856999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.777322</v>
+        <v>4.7773219999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.527000</v>
+        <v>990.52700000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.382000</v>
+        <v>-125.38200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>17209.397843</v>
+        <v>17209.397842999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.780388</v>
+        <v>4.7803880000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.200000</v>
+        <v>1000.2</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.382000</v>
+        <v>-144.38200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>17220.317234</v>
+        <v>17220.317233999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.783421</v>
+        <v>4.7834209999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1045.960000</v>
+        <v>1045.96</v>
       </c>
       <c r="BG4" s="1">
-        <v>-230.422000</v>
+        <v>-230.422</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>17231.914196</v>
+        <v>17231.914196000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.786643</v>
+        <v>4.7866429999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-368.381000</v>
+        <v>-368.38099999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>17242.363413</v>
+        <v>17242.363412999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.789545</v>
+        <v>4.7895450000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.120000</v>
+        <v>1259.1199999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.809000</v>
+        <v>-581.80899999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>17253.154407</v>
+        <v>17253.154407000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.792543</v>
+        <v>4.7925430000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="BV4" s="1">
-        <v>-809.481000</v>
+        <v>-809.48099999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>17263.960713</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.795545</v>
+        <v>4.7955449999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1572.710000</v>
+        <v>1572.71</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1047.870000</v>
+        <v>-1047.8699999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>17275.131147</v>
@@ -1235,482 +1651,482 @@
         <v>4.798648</v>
       </c>
       <c r="CE4" s="1">
-        <v>1988.690000</v>
+        <v>1988.69</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1602.240000</v>
+        <v>-1602.24</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>17104.028728</v>
+        <v>17104.028728000001</v>
       </c>
       <c r="B5" s="1">
-        <v>4.751119</v>
+        <v>4.7511190000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>899.115000</v>
+        <v>899.11500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.187000</v>
+        <v>-195.18700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>17114.093551</v>
+        <v>17114.093551000002</v>
       </c>
       <c r="G5" s="1">
-        <v>4.753915</v>
+        <v>4.7539150000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>915.604000</v>
+        <v>915.60400000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.263000</v>
+        <v>-165.26300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>17124.258209</v>
       </c>
       <c r="L5" s="1">
-        <v>4.756738</v>
+        <v>4.7567380000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>937.492000</v>
+        <v>937.49199999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.111000</v>
+        <v>-118.111</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>17134.765284</v>
+        <v>17134.765284000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.759657</v>
+        <v>4.7596569999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>943.567000</v>
+        <v>943.56700000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>17145.642549</v>
       </c>
       <c r="V5" s="1">
-        <v>4.762678</v>
+        <v>4.7626780000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>949.774000</v>
+        <v>949.774</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.487700</v>
+        <v>-89.487700000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>17156.090280</v>
+        <v>17156.09028</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.765581</v>
+        <v>4.7655810000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>956.938000</v>
+        <v>956.93799999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.102000</v>
+        <v>-80.102000000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>17166.674441</v>
+        <v>17166.674440999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.768521</v>
+        <v>4.7685209999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>961.802000</v>
+        <v>961.80200000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.037800</v>
+        <v>-80.037800000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>17177.154380</v>
+        <v>17177.15438</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.771432</v>
+        <v>4.7714319999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.726000</v>
+        <v>969.726</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.178700</v>
+        <v>-88.178700000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>17187.773229</v>
+        <v>17187.773228999999</v>
       </c>
       <c r="AP5" s="1">
         <v>4.774381</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.018000</v>
+        <v>979.01800000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>17199.019023</v>
+        <v>17199.019023000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.777505</v>
+        <v>4.7775049999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.538000</v>
+        <v>990.53800000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.396000</v>
+        <v>-125.396</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>17209.903233</v>
+        <v>17209.903233000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.780529</v>
+        <v>4.7805289999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.210000</v>
+        <v>1000.21</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.396000</v>
+        <v>-144.39599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>17220.761186</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.783545</v>
+        <v>4.7835450000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG5" s="1">
-        <v>-230.411000</v>
+        <v>-230.411</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>17232.288707</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.786747</v>
+        <v>4.7867470000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1126.230000</v>
+        <v>1126.23</v>
       </c>
       <c r="BL5" s="1">
-        <v>-368.397000</v>
+        <v>-368.39699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>17242.762693</v>
+        <v>17242.762693000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.789656</v>
+        <v>4.7896559999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.773000</v>
+        <v>-581.77300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>17253.587420</v>
+        <v>17253.58742</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.792663</v>
+        <v>4.7926630000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="BV5" s="1">
-        <v>-809.535000</v>
+        <v>-809.53499999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>17264.391240</v>
+        <v>17264.391240000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.795664</v>
+        <v>4.7956640000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1572.760000</v>
+        <v>1572.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1047.870000</v>
+        <v>-1047.8699999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>17275.649931</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.798792</v>
+        <v>4.7987919999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>1987.380000</v>
+        <v>1987.38</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1603.270000</v>
+        <v>-1603.27</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>17104.367964</v>
+        <v>17104.367964000001</v>
       </c>
       <c r="B6" s="1">
-        <v>4.751213</v>
+        <v>4.7512129999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>898.918000</v>
+        <v>898.91800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.321000</v>
+        <v>-195.321</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>17114.437774</v>
+        <v>17114.437774000002</v>
       </c>
       <c r="G6" s="1">
-        <v>4.754010</v>
+        <v>4.7540100000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>915.207000</v>
+        <v>915.20699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.382000</v>
+        <v>-165.38200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>17124.606721</v>
       </c>
       <c r="L6" s="1">
-        <v>4.756835</v>
+        <v>4.7568349999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>937.074000</v>
+        <v>937.07399999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.384000</v>
+        <v>-118.384</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>17135.461667</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.759850</v>
+        <v>4.7598500000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>943.560000</v>
+        <v>943.56</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.090000</v>
+        <v>-103.09</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>17145.991766</v>
+        <v>17145.991765999999</v>
       </c>
       <c r="V6" s="1">
-        <v>4.762775</v>
+        <v>4.7627750000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>949.706000</v>
+        <v>949.70600000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.514000</v>
+        <v>-89.513999999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>17156.436023</v>
+        <v>17156.436022999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.765677</v>
+        <v>4.7656770000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>956.988000</v>
+        <v>956.98800000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.084200</v>
+        <v>-80.084199999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>17167.019129</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.768616</v>
+        <v>4.7686159999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>961.835000</v>
+        <v>961.83500000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.001600</v>
+        <v>-80.001599999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>17177.816538</v>
+        <v>17177.816537999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.771616</v>
+        <v>4.7716159999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.755000</v>
+        <v>969.755</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.117200</v>
+        <v>-88.117199999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>17188.439886</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.774567</v>
+        <v>4.7745670000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.011000</v>
+        <v>979.01099999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.421000</v>
+        <v>-103.42100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>17199.451039</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.777625</v>
+        <v>4.7776249999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.519000</v>
+        <v>990.51900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.394000</v>
+        <v>-125.39400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>17210.114566</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.780587</v>
+        <v>4.7805869999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.230000</v>
+        <v>1000.23</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.386000</v>
+        <v>-144.386</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>17221.126209</v>
+        <v>17221.126208999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.783646</v>
+        <v>4.7836460000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1045.930000</v>
+        <v>1045.93</v>
       </c>
       <c r="BG6" s="1">
-        <v>-230.417000</v>
+        <v>-230.417</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>17232.664146</v>
+        <v>17232.664145999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.786851</v>
+        <v>4.7868510000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-368.391000</v>
+        <v>-368.39100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>17243.184293</v>
+        <v>17243.184292999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.789773</v>
+        <v>4.7897730000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.070000</v>
+        <v>1259.07</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.794000</v>
+        <v>-581.79399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>17254.018935</v>
@@ -1719,46 +2135,46 @@
         <v>4.792783</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-809.543000</v>
+        <v>-809.54300000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>17264.811848</v>
+        <v>17264.811848000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.795781</v>
+        <v>4.7957809999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1572.740000</v>
+        <v>1572.74</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1047.950000</v>
+        <v>-1047.95</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>17276.163821</v>
+        <v>17276.163820999998</v>
       </c>
       <c r="CD6" s="1">
         <v>4.798934</v>
       </c>
       <c r="CE6" s="1">
-        <v>1988.080000</v>
+        <v>1988.08</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1604.820000</v>
+        <v>-1604.82</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>17104.711691</v>
       </c>
@@ -1766,285 +2182,285 @@
         <v>4.751309</v>
       </c>
       <c r="C7" s="1">
-        <v>899.020000</v>
+        <v>899.02</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.223000</v>
+        <v>-195.22300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>17115.125580</v>
+        <v>17115.12558</v>
       </c>
       <c r="G7" s="1">
-        <v>4.754202</v>
+        <v>4.7542020000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>915.543000</v>
+        <v>915.54300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.177000</v>
+        <v>-165.17699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>17125.299136</v>
+        <v>17125.299136000001</v>
       </c>
       <c r="L7" s="1">
         <v>4.757028</v>
       </c>
       <c r="M7" s="1">
-        <v>937.305000</v>
+        <v>937.30499999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.247000</v>
+        <v>-118.247</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>17135.812338</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.759948</v>
+        <v>4.7599479999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>943.578000</v>
+        <v>943.57799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.061000</v>
+        <v>-103.06100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>17146.335493</v>
+        <v>17146.335492999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.762871</v>
+        <v>4.7628709999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>949.767000</v>
+        <v>949.76700000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.463300</v>
+        <v>-89.463300000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>17156.785703</v>
+        <v>17156.785703000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.765774</v>
+        <v>4.7657740000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>956.906000</v>
+        <v>956.90599999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.123100</v>
+        <v>-80.123099999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>17167.674840</v>
+        <v>17167.67484</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.768799</v>
+        <v>4.7687989999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>961.759000</v>
+        <v>961.75900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.075100</v>
+        <v>-80.075100000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17178.199973</v>
+        <v>17178.199972999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.771722</v>
+        <v>4.7717219999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.752000</v>
+        <v>969.75199999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.129200</v>
+        <v>-88.129199999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>17188.853516</v>
+        <v>17188.853515999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.774682</v>
+        <v>4.7746820000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.059000</v>
+        <v>979.05899999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.431000</v>
+        <v>-103.431</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>17199.834942</v>
+        <v>17199.834942000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.777732</v>
+        <v>4.7777320000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.520000</v>
+        <v>990.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.398000</v>
+        <v>-125.398</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>17210.473167</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.780687</v>
+        <v>4.7806870000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.230000</v>
+        <v>1000.23</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.385000</v>
+        <v>-144.38499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>17221.485842</v>
+        <v>17221.485841999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.783746</v>
+        <v>4.7837459999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG7" s="1">
-        <v>-230.401000</v>
+        <v>-230.40100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>17233.074834</v>
+        <v>17233.074833999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.786965</v>
+        <v>4.7869650000000004</v>
       </c>
       <c r="BK7" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-368.362000</v>
+        <v>-368.36200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>17244.009139</v>
+        <v>17244.009139000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.790003</v>
+        <v>4.7900029999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.120000</v>
+        <v>1259.1199999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.774000</v>
+        <v>-581.774</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>17254.428102</v>
+        <v>17254.428102000002</v>
       </c>
       <c r="BT7" s="1">
         <v>4.792897</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-809.745000</v>
+        <v>-809.745</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>17265.232951</v>
+        <v>17265.232951000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.795898</v>
+        <v>4.7958980000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1572.860000</v>
+        <v>1572.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1047.730000</v>
+        <v>-1047.73</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>17276.686072</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.799079</v>
+        <v>4.7990789999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1988.580000</v>
+        <v>1988.58</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1602.590000</v>
+        <v>-1602.59</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>17105.394682</v>
+        <v>17105.394681999998</v>
       </c>
       <c r="B8" s="1">
-        <v>4.751499</v>
+        <v>4.7514989999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>898.800000</v>
+        <v>898.8</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.295000</v>
+        <v>-195.29499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>17115.470911</v>
       </c>
       <c r="G8" s="1">
-        <v>4.754297</v>
+        <v>4.7542970000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>915.781000</v>
+        <v>915.78099999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.307000</v>
+        <v>-165.30699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>17125.644353</v>
@@ -2053,1343 +2469,1343 @@
         <v>4.757123</v>
       </c>
       <c r="M8" s="1">
-        <v>937.200000</v>
+        <v>937.2</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.271000</v>
+        <v>-118.271</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>17136.160033</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.760044</v>
+        <v>4.7600439999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>943.580000</v>
+        <v>943.58</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.087000</v>
+        <v>-103.087</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>17146.986739</v>
       </c>
       <c r="V8" s="1">
-        <v>4.763052</v>
+        <v>4.7630520000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>949.872000</v>
+        <v>949.87199999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.585900</v>
+        <v>-89.585899999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>17157.445845</v>
+        <v>17157.445844999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.765957</v>
+        <v>4.7659570000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>956.886000</v>
+        <v>956.88599999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.154000</v>
+        <v>-80.153999999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>17168.051303</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.768903</v>
+        <v>4.7689029999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>961.715000</v>
+        <v>961.71500000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.954300</v>
+        <v>-79.954300000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>17178.549626</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.771819</v>
+        <v>4.7718189999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.770000</v>
+        <v>969.77</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.119500</v>
+        <v>-88.119500000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>17189.247340</v>
+        <v>17189.247340000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.774791</v>
+        <v>4.7747909999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.044000</v>
+        <v>979.04399999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.417000</v>
+        <v>-103.417</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>17200.199005</v>
+        <v>17200.199004999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.777833</v>
+        <v>4.7778330000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.528000</v>
+        <v>990.52800000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.396000</v>
+        <v>-125.396</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>17210.890767</v>
+        <v>17210.890767000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.780803</v>
+        <v>4.7808029999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.375000</v>
+        <v>-144.375</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>17221.907906</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.783863</v>
+        <v>4.7838630000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG8" s="1">
-        <v>-230.431000</v>
+        <v>-230.43100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>17233.439889</v>
+        <v>17233.439889000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.787067</v>
+        <v>4.7870670000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-368.404000</v>
+        <v>-368.404</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>17244.419828</v>
+        <v>17244.419827999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.790117</v>
+        <v>4.7901170000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.110000</v>
+        <v>1259.1099999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.810000</v>
+        <v>-581.80999999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>17254.861110</v>
+        <v>17254.861110000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.793017</v>
+        <v>4.7930169999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV8" s="1">
-        <v>-809.830000</v>
+        <v>-809.83</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>17265.661000</v>
+        <v>17265.661</v>
       </c>
       <c r="BY8" s="1">
         <v>4.796017</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1572.650000</v>
+        <v>1572.65</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1047.830000</v>
+        <v>-1047.83</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>17277.237127</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.799233</v>
+        <v>4.7992330000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1987.830000</v>
+        <v>1987.83</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1604.420000</v>
+        <v>-1604.42</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>17105.743114</v>
+        <v>17105.743114000001</v>
       </c>
       <c r="B9" s="1">
         <v>4.751595</v>
       </c>
       <c r="C9" s="1">
-        <v>899.018000</v>
+        <v>899.01800000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.308000</v>
+        <v>-195.30799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>17115.817117</v>
+        <v>17115.817116999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4.754394</v>
+        <v>4.7543939999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>915.523000</v>
+        <v>915.52300000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.342000</v>
+        <v>-165.34200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>17125.991551</v>
+        <v>17125.991550999999</v>
       </c>
       <c r="L9" s="1">
-        <v>4.757220</v>
+        <v>4.7572200000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>937.407000</v>
+        <v>937.40700000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.340000</v>
+        <v>-118.34</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>17136.816241</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.760227</v>
+        <v>4.7602270000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>943.610000</v>
+        <v>943.61</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>17147.364195</v>
+        <v>17147.364194999998</v>
       </c>
       <c r="V9" s="1">
-        <v>4.763157</v>
+        <v>4.7631569999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>949.765000</v>
+        <v>949.76499999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.497400</v>
+        <v>-89.497399999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>17157.830742</v>
+        <v>17157.830741999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.766064</v>
+        <v>4.7660640000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>956.919000</v>
+        <v>956.91899999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.057900</v>
+        <v>-80.057900000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>17168.394071</v>
+        <v>17168.394070999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.768998</v>
+        <v>4.7689979999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>961.772000</v>
+        <v>961.77200000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.076500</v>
+        <v>-80.076499999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>17178.894403</v>
+        <v>17178.894402999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.771915</v>
+        <v>4.7719149999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.769000</v>
+        <v>969.76900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.144900</v>
+        <v>-88.144900000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>17189.607931</v>
+        <v>17189.607930999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.774891</v>
+        <v>4.7748910000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.012000</v>
+        <v>979.01199999999994</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.433000</v>
+        <v>-103.43300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>17200.628575</v>
+        <v>17200.628574999999</v>
       </c>
       <c r="AU9" s="1">
         <v>4.777952</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.513000</v>
+        <v>990.51300000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.400000</v>
+        <v>-125.4</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>17211.193856</v>
+        <v>17211.193856000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.780887</v>
+        <v>4.7808869999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.210000</v>
+        <v>1000.21</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.408000</v>
+        <v>-144.40799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>17222.207985</v>
+        <v>17222.207985000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.783947</v>
+        <v>4.7839470000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG9" s="1">
-        <v>-230.408000</v>
+        <v>-230.40799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>17233.817345</v>
+        <v>17233.817344999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.787171</v>
+        <v>4.7871709999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1126.240000</v>
+        <v>1126.24</v>
       </c>
       <c r="BL9" s="1">
-        <v>-368.391000</v>
+        <v>-368.39100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>17244.817155</v>
+        <v>17244.817155000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.790227</v>
+        <v>4.7902269999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.070000</v>
+        <v>1259.07</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.812000</v>
+        <v>-581.81200000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>17255.290181</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.793136</v>
+        <v>4.7931359999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.720000</v>
+        <v>1408.72</v>
       </c>
       <c r="BV9" s="1">
-        <v>-809.964000</v>
+        <v>-809.96400000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>17266.086566</v>
+        <v>17266.086566000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.796135</v>
+        <v>4.7961349999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1572.700000</v>
+        <v>1572.7</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1047.910000</v>
+        <v>-1047.9100000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>17277.762887</v>
+        <v>17277.762887000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.799379</v>
+        <v>4.7993790000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1989.570000</v>
+        <v>1989.57</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1603.840000</v>
+        <v>-1603.84</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>17106.082138</v>
+        <v>17106.082138000002</v>
       </c>
       <c r="B10" s="1">
-        <v>4.751689</v>
+        <v>4.7516889999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>899.058000</v>
+        <v>899.05799999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.301000</v>
+        <v>-195.30099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>17116.473821</v>
       </c>
       <c r="G10" s="1">
-        <v>4.754576</v>
+        <v>4.7545760000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>915.647000</v>
+        <v>915.64700000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.038000</v>
+        <v>-165.03800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>17126.614030</v>
+        <v>17126.614030000001</v>
       </c>
       <c r="L10" s="1">
-        <v>4.757393</v>
+        <v>4.7573930000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>937.263000</v>
+        <v>937.26300000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>17137.198161</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.760333</v>
+        <v>4.7603330000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>943.571000</v>
+        <v>943.57100000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.133000</v>
+        <v>-103.133</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>17147.709913</v>
+        <v>17147.709912999999</v>
       </c>
       <c r="V10" s="1">
-        <v>4.763253</v>
+        <v>4.7632529999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>949.750000</v>
+        <v>949.75</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.432100</v>
+        <v>-89.432100000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>17158.167525</v>
+        <v>17158.167525000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.766158</v>
+        <v>4.7661579999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>956.785000</v>
+        <v>956.78499999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.227700</v>
+        <v>-80.227699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>17168.739256</v>
+        <v>17168.739256000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.769094</v>
+        <v>4.7690939999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>961.687000</v>
+        <v>961.68700000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.929200</v>
+        <v>-79.929199999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>17179.300569</v>
+        <v>17179.300568999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.772028</v>
+        <v>4.7720279999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>969.761000</v>
+        <v>969.76099999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.131100</v>
+        <v>-88.131100000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>17190.027547</v>
+        <v>17190.027547000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.775008</v>
+        <v>4.7750079999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.022000</v>
+        <v>979.02200000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.425000</v>
+        <v>-103.425</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>17200.928652</v>
+        <v>17200.928651999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.778036</v>
+        <v>4.7780360000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.497000</v>
+        <v>990.49699999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.360000</v>
+        <v>-125.36</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>17211.549462</v>
+        <v>17211.549461999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.780986</v>
+        <v>4.7809860000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.200000</v>
+        <v>1000.2</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.398000</v>
+        <v>-144.398</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>17222.569073</v>
+        <v>17222.569072999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.784047</v>
+        <v>4.7840470000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1045.960000</v>
+        <v>1045.96</v>
       </c>
       <c r="BG10" s="1">
-        <v>-230.411000</v>
+        <v>-230.411</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>17234.194304</v>
+        <v>17234.194304000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.787276</v>
+        <v>4.7872760000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-368.405000</v>
+        <v>-368.40499999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>17245.237234</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.790344</v>
+        <v>4.7903440000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.100000</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.748000</v>
+        <v>-581.74800000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>17255.708773</v>
+        <v>17255.708772999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.793252</v>
+        <v>4.7932519999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.740000</v>
+        <v>1408.74</v>
       </c>
       <c r="BV10" s="1">
-        <v>-810.050000</v>
+        <v>-810.05</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>17266.524037</v>
+        <v>17266.524036999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.796257</v>
+        <v>4.7962569999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1572.680000</v>
+        <v>1572.68</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1047.820000</v>
+        <v>-1047.82</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>17278.303031</v>
+        <v>17278.303030999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.799529</v>
+        <v>4.7995289999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1987.670000</v>
+        <v>1987.67</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1603.060000</v>
+        <v>-1603.06</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>17106.727433</v>
       </c>
       <c r="B11" s="1">
-        <v>4.751869</v>
+        <v>4.7518690000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>898.888000</v>
+        <v>898.88800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.268000</v>
+        <v>-195.268</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>17116.851275</v>
+        <v>17116.851275000001</v>
       </c>
       <c r="G11" s="1">
-        <v>4.754681</v>
+        <v>4.7546809999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>915.473000</v>
+        <v>915.47299999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.222000</v>
+        <v>-165.22200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>17127.024562</v>
+        <v>17127.024561999999</v>
       </c>
       <c r="L11" s="1">
-        <v>4.757507</v>
+        <v>4.7575070000000004</v>
       </c>
       <c r="M11" s="1">
-        <v>937.435000</v>
+        <v>937.43499999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.325000</v>
+        <v>-118.325</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>17137.556273</v>
+        <v>17137.556272999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.760432</v>
+        <v>4.7604319999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>943.549000</v>
+        <v>943.54899999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.094000</v>
+        <v>-103.09399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>17148.053611</v>
+        <v>17148.053610999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.763348</v>
+        <v>4.7633479999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>949.715000</v>
+        <v>949.71500000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.397400</v>
+        <v>-89.397400000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>17158.533572</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.766259</v>
+        <v>4.7662589999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.891000</v>
+        <v>956.89099999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.168400</v>
+        <v>-80.168400000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>17169.167335</v>
+        <v>17169.167334999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.769213</v>
+        <v>4.7692129999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>961.829000</v>
+        <v>961.82899999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.092500</v>
+        <v>-80.092500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>17179.595225</v>
+        <v>17179.595225000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.772110</v>
+        <v>4.7721099999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.745000</v>
+        <v>969.745</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.111700</v>
+        <v>-88.111699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>17190.327628</v>
+        <v>17190.327627999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.775091</v>
+        <v>4.7750909999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.016000</v>
+        <v>979.01599999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.443000</v>
+        <v>-103.443</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>17201.292187</v>
+        <v>17201.292186999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.778137</v>
+        <v>4.7781370000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.532000</v>
+        <v>990.53200000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.373000</v>
+        <v>-125.373</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>17211.907071</v>
+        <v>17211.907071000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>4.781085</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.200000</v>
+        <v>1000.2</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.361000</v>
+        <v>-144.36099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>17222.929696</v>
+        <v>17222.929695999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.784147</v>
+        <v>4.7841469999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1045.960000</v>
+        <v>1045.96</v>
       </c>
       <c r="BG11" s="1">
-        <v>-230.402000</v>
+        <v>-230.40199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>17234.969055</v>
+        <v>17234.969055000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.787491</v>
+        <v>4.7874910000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1126.250000</v>
+        <v>1126.25</v>
       </c>
       <c r="BL11" s="1">
-        <v>-368.418000</v>
+        <v>-368.41800000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>17245.632577</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.790453</v>
+        <v>4.7904530000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.100000</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.763000</v>
+        <v>-581.76300000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>17256.131859</v>
+        <v>17256.131859000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.793370</v>
+        <v>4.7933700000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.630000</v>
+        <v>1408.63</v>
       </c>
       <c r="BV11" s="1">
-        <v>-810.168000</v>
+        <v>-810.16800000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>17266.944645</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.796374</v>
+        <v>4.7963740000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1572.610000</v>
+        <v>1572.61</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1047.770000</v>
+        <v>-1047.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>17279.155157</v>
+        <v>17279.155157000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.799765</v>
+        <v>4.7997649999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1989.620000</v>
+        <v>1989.62</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1603.110000</v>
+        <v>-1603.11</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>17107.105384</v>
+        <v>17107.105383999999</v>
       </c>
       <c r="B12" s="1">
-        <v>4.751974</v>
+        <v>4.7519739999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>899.052000</v>
+        <v>899.05200000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.209000</v>
+        <v>-195.209</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>17117.194048</v>
+        <v>17117.194048000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.754776</v>
+        <v>4.7547759999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>915.801000</v>
+        <v>915.80100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.218000</v>
+        <v>-165.21799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>17127.373902</v>
+        <v>17127.373901999999</v>
       </c>
       <c r="L12" s="1">
-        <v>4.757604</v>
+        <v>4.7576039999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>937.388000</v>
+        <v>937.38800000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.364000</v>
+        <v>-118.364</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>17137.907935</v>
+        <v>17137.907934999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.760530</v>
+        <v>4.7605300000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>943.579000</v>
+        <v>943.57899999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>17148.467266</v>
       </c>
       <c r="V12" s="1">
-        <v>4.763463</v>
+        <v>4.7634629999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>949.763000</v>
+        <v>949.76300000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.430900</v>
+        <v>-89.430899999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>17158.969557</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.766380</v>
+        <v>4.7663799999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>956.931000</v>
+        <v>956.93100000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.126900</v>
+        <v>-80.126900000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>17169.450054</v>
+        <v>17169.450054000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.769292</v>
+        <v>4.7692920000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>961.818000</v>
+        <v>961.81799999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.039600</v>
+        <v>-80.039599999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>17179.941929</v>
+        <v>17179.941929000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.772206</v>
+        <v>4.7722059999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.757000</v>
+        <v>969.75699999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.123600</v>
+        <v>-88.123599999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>17190.684756</v>
+        <v>17190.684755999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.775190</v>
+        <v>4.7751900000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.026000</v>
+        <v>979.02599999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.433000</v>
+        <v>-103.43300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>17201.656748</v>
+        <v>17201.656748000001</v>
       </c>
       <c r="AU12" s="1">
         <v>4.778238</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.526000</v>
+        <v>990.52599999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.382000</v>
+        <v>-125.38200000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>17212.633582</v>
+        <v>17212.633581999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.781287</v>
+        <v>4.7812869999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.404000</v>
+        <v>-144.404</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>17223.654814</v>
+        <v>17223.654814000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.784349</v>
+        <v>4.7843489999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG12" s="1">
-        <v>-230.388000</v>
+        <v>-230.38800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>17235.343039</v>
+        <v>17235.343038999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.787595</v>
+        <v>4.7875949999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1126.200000</v>
+        <v>1126.2</v>
       </c>
       <c r="BL12" s="1">
-        <v>-368.387000</v>
+        <v>-368.387</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>17246.054144</v>
+        <v>17246.054144000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.790571</v>
+        <v>4.7905709999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.080000</v>
+        <v>1259.08</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.784000</v>
+        <v>-581.78399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>17256.563101</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.793490</v>
+        <v>4.7934900000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="BV12" s="1">
-        <v>-810.242000</v>
+        <v>-810.24199999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>17267.670788</v>
+        <v>17267.670787999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.796575</v>
+        <v>4.7965749999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1572.490000</v>
+        <v>1572.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>17279.381334</v>
+        <v>17279.381334000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.799828</v>
+        <v>4.7998279999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1989.710000</v>
+        <v>1989.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1603.150000</v>
+        <v>-1603.15</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>17107.445640</v>
+        <v>17107.445640000002</v>
       </c>
       <c r="B13" s="1">
-        <v>4.752068</v>
+        <v>4.7520680000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>898.989000</v>
+        <v>898.98900000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.170000</v>
+        <v>-195.17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>17117.536747</v>
+        <v>17117.536746999998</v>
       </c>
       <c r="G13" s="1">
-        <v>4.754871</v>
+        <v>4.7548709999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>915.678000</v>
+        <v>915.678</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.579000</v>
+        <v>-165.57900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>17127.795005</v>
       </c>
       <c r="L13" s="1">
-        <v>4.757721</v>
+        <v>4.7577210000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>937.240000</v>
+        <v>937.24</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.354000</v>
+        <v>-118.354</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>17138.329567</v>
+        <v>17138.329567000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.760647</v>
+        <v>4.7606469999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>943.575000</v>
+        <v>943.57500000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.074000</v>
+        <v>-103.074</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>17148.742081</v>
       </c>
       <c r="V13" s="1">
-        <v>4.763539</v>
+        <v>4.7635389999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>949.744000</v>
+        <v>949.74400000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.483700</v>
+        <v>-89.483699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>17159.278599</v>
+        <v>17159.278599000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.766466</v>
+        <v>4.7664660000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>956.901000</v>
+        <v>956.90099999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.141700</v>
+        <v>-80.1417</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>17169.793255</v>
@@ -3398,405 +3814,405 @@
         <v>4.769387</v>
       </c>
       <c r="AG13" s="1">
-        <v>961.804000</v>
+        <v>961.80399999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.994300</v>
+        <v>-79.994299999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>17180.290584</v>
+        <v>17180.290583999998</v>
       </c>
       <c r="AK13" s="1">
         <v>4.772303</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.764000</v>
+        <v>969.76400000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.130600</v>
+        <v>-88.130600000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>17191.045834</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.775291</v>
+        <v>4.7752910000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.012000</v>
+        <v>979.01199999999994</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.430000</v>
+        <v>-103.43</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>17202.387354</v>
+        <v>17202.387353999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.778441</v>
+        <v>4.7784409999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.529000</v>
+        <v>990.529</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.395000</v>
+        <v>-125.395</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>17213.011164</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.781392</v>
+        <v>4.7813920000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.200000</v>
+        <v>1000.2</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.392000</v>
+        <v>-144.392</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>17224.039213</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.784455</v>
+        <v>4.7844550000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG13" s="1">
-        <v>-230.392000</v>
+        <v>-230.392</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>17235.720990</v>
+        <v>17235.720990000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.787700</v>
+        <v>4.7877000000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL13" s="1">
-        <v>-368.418000</v>
+        <v>-368.41800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>17246.755985</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.790766</v>
+        <v>4.7907659999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.100000</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.761000</v>
+        <v>-581.76099999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>17257.287538</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.793691</v>
+        <v>4.7936909999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="BV13" s="1">
-        <v>-810.236000</v>
+        <v>-810.23599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>17267.848388</v>
+        <v>17267.848387999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.796625</v>
+        <v>4.7966249999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1572.560000</v>
+        <v>1572.56</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>17279.899189</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.799972</v>
+        <v>4.7999720000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1988.380000</v>
+        <v>1988.38</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1602.600000</v>
+        <v>-1602.6</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>17107.792346</v>
+        <v>17107.792345999998</v>
       </c>
       <c r="B14" s="1">
-        <v>4.752165</v>
+        <v>4.7521649999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>899.060000</v>
+        <v>899.06</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.215000</v>
+        <v>-195.215</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>17117.952395</v>
       </c>
       <c r="G14" s="1">
-        <v>4.754987</v>
+        <v>4.7549869999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.391000</v>
+        <v>916.39099999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.273000</v>
+        <v>-165.273</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>17128.063372</v>
+        <v>17128.063372000001</v>
       </c>
       <c r="L14" s="1">
-        <v>4.757795</v>
+        <v>4.7577949999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>937.064000</v>
+        <v>937.06399999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.487000</v>
+        <v>-118.48699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>17138.607069</v>
+        <v>17138.607069000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.760724</v>
+        <v>4.7607239999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>943.584000</v>
+        <v>943.58399999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.071000</v>
+        <v>-103.071</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>17149.087276</v>
+        <v>17149.087275999998</v>
       </c>
       <c r="V14" s="1">
-        <v>4.763635</v>
+        <v>4.7636349999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>949.789000</v>
+        <v>949.78899999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.460500</v>
+        <v>-89.460499999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>17159.613861</v>
+        <v>17159.613861000002</v>
       </c>
       <c r="AA14" s="1">
         <v>4.766559</v>
       </c>
       <c r="AB14" s="1">
-        <v>956.988000</v>
+        <v>956.98800000000006</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.177000</v>
+        <v>-80.177000000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>17170.135989</v>
+        <v>17170.135988999999</v>
       </c>
       <c r="AF14" s="1">
         <v>4.769482</v>
       </c>
       <c r="AG14" s="1">
-        <v>961.825000</v>
+        <v>961.82500000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.958600</v>
+        <v>-79.958600000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>17180.986471</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.772496</v>
+        <v>4.7724960000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.746000</v>
+        <v>969.74599999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.097400</v>
+        <v>-88.097399999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>17191.767018</v>
+        <v>17191.767017999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.775491</v>
+        <v>4.7754909999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.017000</v>
+        <v>979.01700000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>17202.752906</v>
+        <v>17202.752906000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.778542</v>
+        <v>4.7785419999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.503000</v>
+        <v>990.50300000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.401000</v>
+        <v>-125.401</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>17213.399035</v>
+        <v>17213.399034999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.781500</v>
+        <v>4.7815000000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.190000</v>
+        <v>1000.19</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.410000</v>
+        <v>-144.41</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>17224.404301</v>
+        <v>17224.404300999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.784557</v>
+        <v>4.7845570000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1045.960000</v>
+        <v>1045.96</v>
       </c>
       <c r="BG14" s="1">
-        <v>-230.400000</v>
+        <v>-230.4</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>17236.402989</v>
+        <v>17236.402988999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.787890</v>
+        <v>4.78789</v>
       </c>
       <c r="BK14" s="1">
-        <v>1126.190000</v>
+        <v>1126.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-368.405000</v>
+        <v>-368.40499999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>17246.889408</v>
+        <v>17246.889407999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.790803</v>
+        <v>4.7908030000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.080000</v>
+        <v>1259.08</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.762000</v>
+        <v>-581.76199999999994</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>17257.405585</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.793724</v>
+        <v>4.7937240000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.310000</v>
+        <v>1408.31</v>
       </c>
       <c r="BV14" s="1">
-        <v>-810.218000</v>
+        <v>-810.21799999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>17268.276899</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.796744</v>
+        <v>4.7967440000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1572.590000</v>
+        <v>1572.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>17280.416019</v>
@@ -3805,16 +4221,16 @@
         <v>4.800116</v>
       </c>
       <c r="CE14" s="1">
-        <v>1988.690000</v>
+        <v>1988.69</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1602.760000</v>
+        <v>-1602.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>17108.211463</v>
       </c>
@@ -3822,315 +4238,315 @@
         <v>4.752281</v>
       </c>
       <c r="C15" s="1">
-        <v>898.894000</v>
+        <v>898.89400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.265000</v>
+        <v>-195.26499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>17118.248537</v>
+        <v>17118.248536999999</v>
       </c>
       <c r="G15" s="1">
-        <v>4.755069</v>
+        <v>4.7550689999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>915.683000</v>
+        <v>915.68299999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.224000</v>
+        <v>-165.22399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>17128.410541</v>
+        <v>17128.410541000001</v>
       </c>
       <c r="L15" s="1">
         <v>4.757892</v>
       </c>
       <c r="M15" s="1">
-        <v>937.360000</v>
+        <v>937.36</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.602000</v>
+        <v>-118.602</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>17138.956001</v>
+        <v>17138.956000999999</v>
       </c>
       <c r="Q15" s="1">
         <v>4.760821</v>
       </c>
       <c r="R15" s="1">
-        <v>943.526000</v>
+        <v>943.52599999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.029000</v>
+        <v>-103.029</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>17149.430033</v>
+        <v>17149.430033000001</v>
       </c>
       <c r="V15" s="1">
-        <v>4.763731</v>
+        <v>4.7637309999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>949.745000</v>
+        <v>949.745</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.495400</v>
+        <v>-89.495400000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>17160.301810</v>
+        <v>17160.301810000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.766751</v>
+        <v>4.7667510000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>956.985000</v>
+        <v>956.98500000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.142300</v>
+        <v>-80.142300000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>17170.820762</v>
+        <v>17170.820761999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.769672</v>
+        <v>4.7696719999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>961.739000</v>
+        <v>961.73900000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.991400</v>
+        <v>-79.991399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>17181.336650</v>
+        <v>17181.336650000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.772594</v>
+        <v>4.7725939999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.745000</v>
+        <v>969.745</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.128000</v>
+        <v>-88.128</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>17192.114713</v>
+        <v>17192.114712999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.775587</v>
+        <v>4.7755869999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.011000</v>
+        <v>979.01099999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.401000</v>
+        <v>-103.401</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>17203.117962</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.778644</v>
+        <v>4.7786439999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.511000</v>
+        <v>990.51099999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.407000</v>
+        <v>-125.407</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>17214.059242</v>
+        <v>17214.059241999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.781683</v>
+        <v>4.7816830000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.190000</v>
+        <v>1000.19</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.381000</v>
+        <v>-144.381</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>17225.065811</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.784741</v>
+        <v>4.7847410000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG15" s="1">
-        <v>-230.414000</v>
+        <v>-230.41399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>17236.514094</v>
+        <v>17236.514093999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.787921</v>
+        <v>4.7879209999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1126.250000</v>
+        <v>1126.25</v>
       </c>
       <c r="BL15" s="1">
-        <v>-368.419000</v>
+        <v>-368.41899999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>17247.303108</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.790918</v>
+        <v>4.7909179999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.060000</v>
+        <v>1259.06</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.765000</v>
+        <v>-581.76499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>17257.843092</v>
+        <v>17257.843091999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.793845</v>
+        <v>4.7938450000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.180000</v>
+        <v>1408.18</v>
       </c>
       <c r="BV15" s="1">
-        <v>-810.180000</v>
+        <v>-810.18</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>17268.725282</v>
+        <v>17268.725281999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.796868</v>
+        <v>4.7968679999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1572.650000</v>
+        <v>1572.65</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1047.820000</v>
+        <v>-1047.82</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>17280.969522</v>
+        <v>17280.969521999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.800269</v>
+        <v>4.8002690000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1989.700000</v>
+        <v>1989.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1603.680000</v>
+        <v>-1603.68</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>17108.490214</v>
+        <v>17108.490214000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.752358</v>
+        <v>4.7523580000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>899.059000</v>
+        <v>899.05899999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.180000</v>
+        <v>-195.18</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>17118.590783</v>
       </c>
       <c r="G16" s="1">
-        <v>4.755164</v>
+        <v>4.7551639999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>915.651000</v>
+        <v>915.65099999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.490000</v>
+        <v>-165.49</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>17128.757923</v>
+        <v>17128.757923000001</v>
       </c>
       <c r="L16" s="1">
-        <v>4.757988</v>
+        <v>4.7579880000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>937.283000</v>
+        <v>937.28300000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.302000</v>
+        <v>-118.30200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>17139.298719</v>
+        <v>17139.298718999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.760916</v>
+        <v>4.7609159999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>943.465000</v>
+        <v>943.46500000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.016000</v>
+        <v>-103.01600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>17150.117983</v>
@@ -4139,103 +4555,103 @@
         <v>4.763922</v>
       </c>
       <c r="W16" s="1">
-        <v>949.741000</v>
+        <v>949.74099999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.443500</v>
+        <v>-89.4435</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>17160.647521</v>
+        <v>17160.647520999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.766847</v>
+        <v>4.7668470000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>956.989000</v>
+        <v>956.98900000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.220300</v>
+        <v>-80.220299999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>17171.165187</v>
+        <v>17171.165186999999</v>
       </c>
       <c r="AF16" s="1">
         <v>4.769768</v>
       </c>
       <c r="AG16" s="1">
-        <v>961.834000</v>
+        <v>961.83399999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.976600</v>
+        <v>-79.976600000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>17181.687815</v>
+        <v>17181.687815000001</v>
       </c>
       <c r="AK16" s="1">
         <v>4.772691</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.760000</v>
+        <v>969.76</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.167200</v>
+        <v>-88.167199999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>17192.486215</v>
+        <v>17192.486215000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.775691</v>
+        <v>4.7756910000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.015000</v>
+        <v>979.01499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.397000</v>
+        <v>-103.39700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>17203.791033</v>
+        <v>17203.791033000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.778831</v>
+        <v>4.7788310000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.518000</v>
+        <v>990.51800000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.362000</v>
+        <v>-125.36199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>17214.475387</v>
+        <v>17214.475386999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.781799</v>
+        <v>4.7817990000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.385000</v>
+        <v>-144.38499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>17225.491004</v>
@@ -4244,180 +4660,180 @@
         <v>4.784859</v>
       </c>
       <c r="BF16" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG16" s="1">
-        <v>-230.393000</v>
+        <v>-230.393</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>17236.868769</v>
+        <v>17236.868769000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.788019</v>
+        <v>4.7880190000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1126.200000</v>
+        <v>1126.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-368.380000</v>
+        <v>-368.38</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>17247.694913</v>
+        <v>17247.694912999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.791026</v>
+        <v>4.7910259999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.070000</v>
+        <v>1259.07</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.760000</v>
+        <v>-581.76</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>17258.273586</v>
+        <v>17258.273585999999</v>
       </c>
       <c r="BT16" s="1">
         <v>4.793965</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.100000</v>
+        <v>1408.1</v>
       </c>
       <c r="BV16" s="1">
-        <v>-810.065000</v>
+        <v>-810.06500000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>17269.153362</v>
+        <v>17269.153362000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.796987</v>
+        <v>4.7969869999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1572.550000</v>
+        <v>1572.55</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1047.870000</v>
+        <v>-1047.8699999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>17281.499778</v>
+        <v>17281.499778000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.800417</v>
+        <v>4.8004170000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1988.210000</v>
+        <v>1988.21</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1602.560000</v>
+        <v>-1602.56</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>17108.831958</v>
+        <v>17108.831957999999</v>
       </c>
       <c r="B17" s="1">
         <v>4.752453</v>
       </c>
       <c r="C17" s="1">
-        <v>899.044000</v>
+        <v>899.04399999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.123000</v>
+        <v>-195.12299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>17118.938440</v>
+        <v>17118.938440000002</v>
       </c>
       <c r="G17" s="1">
         <v>4.755261</v>
       </c>
       <c r="H17" s="1">
-        <v>915.642000</v>
+        <v>915.64200000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.377000</v>
+        <v>-165.37700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>17129.451644</v>
+        <v>17129.451644000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.758181</v>
+        <v>4.7581810000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>937.128000</v>
+        <v>937.12800000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.240000</v>
+        <v>-118.24</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>17139.998109</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.761111</v>
+        <v>4.7611109999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>943.466000</v>
+        <v>943.46600000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.001000</v>
+        <v>-103.001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>17150.462208</v>
+        <v>17150.462208000001</v>
       </c>
       <c r="V17" s="1">
-        <v>4.764017</v>
+        <v>4.7640169999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>949.767000</v>
+        <v>949.76700000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.378600</v>
+        <v>-89.378600000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>17160.999186</v>
+        <v>17160.999186000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.766944</v>
+        <v>4.7669439999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>956.860000</v>
+        <v>956.86</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.124300</v>
+        <v>-80.124300000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>17171.506932</v>
@@ -4426,467 +4842,467 @@
         <v>4.769863</v>
       </c>
       <c r="AG17" s="1">
-        <v>961.829000</v>
+        <v>961.82899999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.969600</v>
+        <v>-79.9696</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>17182.335591</v>
+        <v>17182.335590999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.772871</v>
+        <v>4.7728710000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.738000</v>
+        <v>969.73800000000006</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.114300</v>
+        <v>-88.1143</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>17193.166733</v>
+        <v>17193.166732999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.775880</v>
+        <v>4.7758799999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.029000</v>
+        <v>979.029</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>17204.209656</v>
+        <v>17204.209655999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.778947</v>
+        <v>4.7789469999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.511000</v>
+        <v>990.51099999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.383000</v>
+        <v>-125.383</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>17214.863226</v>
+        <v>17214.863226000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.781906</v>
+        <v>4.7819060000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.230000</v>
+        <v>1000.23</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.377000</v>
+        <v>-144.37700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>17225.875899</v>
+        <v>17225.875898999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.784966</v>
+        <v>4.7849659999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1045.990000</v>
+        <v>1045.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-230.407000</v>
+        <v>-230.40700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>17237.243708</v>
+        <v>17237.243708000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.788123</v>
+        <v>4.7881229999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1126.210000</v>
+        <v>1126.21</v>
       </c>
       <c r="BL17" s="1">
-        <v>-368.384000</v>
+        <v>-368.38400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>17248.117006</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.791144</v>
+        <v>4.7911440000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.090000</v>
+        <v>1259.0899999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.786000</v>
+        <v>-581.78599999999994</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>17258.693696</v>
+        <v>17258.693695999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.794082</v>
+        <v>4.7940820000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.030000</v>
+        <v>1408.03</v>
       </c>
       <c r="BV17" s="1">
-        <v>-809.929000</v>
+        <v>-809.92899999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>17269.573975</v>
+        <v>17269.573974999999</v>
       </c>
       <c r="BY17" s="1">
         <v>4.797104</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1572.720000</v>
+        <v>1572.72</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1047.860000</v>
+        <v>-1047.8599999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>17282.018561</v>
+        <v>17282.018561000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.800561</v>
+        <v>4.8005610000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1987.320000</v>
+        <v>1987.32</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1603.670000</v>
+        <v>-1603.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>17109.173205</v>
+        <v>17109.173204999999</v>
       </c>
       <c r="B18" s="1">
         <v>4.752548</v>
       </c>
       <c r="C18" s="1">
-        <v>899.082000</v>
+        <v>899.08199999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.217000</v>
+        <v>-195.21700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>17119.628377</v>
+        <v>17119.628377000001</v>
       </c>
       <c r="G18" s="1">
         <v>4.755452</v>
       </c>
       <c r="H18" s="1">
-        <v>915.753000</v>
+        <v>915.75300000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.601000</v>
+        <v>-165.601</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>17129.796858</v>
+        <v>17129.796858000002</v>
       </c>
       <c r="L18" s="1">
-        <v>4.758277</v>
+        <v>4.7582769999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>937.347000</v>
+        <v>937.34699999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.185000</v>
+        <v>-118.185</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>17140.346270</v>
+        <v>17140.346269999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.761207</v>
+        <v>4.7612069999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>943.478000</v>
+        <v>943.47799999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.983000</v>
+        <v>-102.983</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>17150.803918</v>
+        <v>17150.803918000001</v>
       </c>
       <c r="V18" s="1">
-        <v>4.764112</v>
+        <v>4.7641119999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>949.706000</v>
+        <v>949.70600000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.392000</v>
+        <v>-89.391999999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>17161.657376</v>
+        <v>17161.657375999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.767127</v>
+        <v>4.7671270000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>956.898000</v>
+        <v>956.89800000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.076300</v>
+        <v>-80.076300000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>17172.162642</v>
+        <v>17172.162641999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.770045</v>
+        <v>4.7700449999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>961.839000</v>
+        <v>961.83900000000006</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.949500</v>
+        <v>-79.9495</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>17182.733380</v>
+        <v>17182.733380000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.772981</v>
+        <v>4.7729809999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.750000</v>
+        <v>969.75</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.145800</v>
+        <v>-88.145799999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>17193.590312</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.775997</v>
+        <v>4.7759970000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.007000</v>
+        <v>979.00699999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.397000</v>
+        <v>-103.39700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>17204.571735</v>
+        <v>17204.571735000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.779048</v>
+        <v>4.7790480000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.520000</v>
+        <v>990.52</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.386000</v>
+        <v>-125.386</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>17215.220875</v>
+        <v>17215.220874999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>4.782006</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.399000</v>
+        <v>-144.399</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>17226.239480</v>
+        <v>17226.23948</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.785067</v>
+        <v>4.7850669999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG18" s="1">
-        <v>-230.412000</v>
+        <v>-230.41200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>17237.658892</v>
+        <v>17237.658891999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.788239</v>
+        <v>4.7882389999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL18" s="1">
-        <v>-368.397000</v>
+        <v>-368.39699999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>17248.515790</v>
+        <v>17248.515790000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.791254</v>
+        <v>4.7912540000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.080000</v>
+        <v>1259.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.787000</v>
+        <v>-581.78700000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>17259.116783</v>
+        <v>17259.116783000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.794199</v>
+        <v>4.7941989999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.040000</v>
+        <v>1408.04</v>
       </c>
       <c r="BV18" s="1">
-        <v>-809.871000</v>
+        <v>-809.87099999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>17269.996562</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.797221</v>
+        <v>4.7972210000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1572.630000</v>
+        <v>1572.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>17282.537408</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.800705</v>
+        <v>4.8007049999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1988.680000</v>
+        <v>1988.68</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1604.790000</v>
+        <v>-1604.79</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>17109.866649</v>
       </c>
       <c r="B19" s="1">
-        <v>4.752741</v>
+        <v>4.7527410000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>899.102000</v>
+        <v>899.10199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.095000</v>
+        <v>-195.095</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>17119.974585</v>
       </c>
       <c r="G19" s="1">
-        <v>4.755548</v>
+        <v>4.7555480000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>915.589000</v>
+        <v>915.58900000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.161000</v>
+        <v>-165.161</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>17130.143562</v>
+        <v>17130.143562000001</v>
       </c>
       <c r="L19" s="1">
-        <v>4.758373</v>
+        <v>4.7583729999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>937.190000</v>
+        <v>937.19</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.233000</v>
+        <v>-118.233</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>17140.695948</v>
@@ -4895,617 +5311,617 @@
         <v>4.761304</v>
       </c>
       <c r="R19" s="1">
-        <v>943.533000</v>
+        <v>943.53300000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.003000</v>
+        <v>-103.003</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>17151.459135</v>
+        <v>17151.459135000001</v>
       </c>
       <c r="V19" s="1">
-        <v>4.764294</v>
+        <v>4.7642939999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>949.709000</v>
+        <v>949.70899999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.327200</v>
+        <v>-89.327200000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>17162.044287</v>
+        <v>17162.044287000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.767235</v>
+        <v>4.7672350000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.842000</v>
+        <v>956.84199999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.218200</v>
+        <v>-80.218199999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>17172.539106</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.770150</v>
+        <v>4.7701500000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>961.822000</v>
+        <v>961.822</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.966500</v>
+        <v>-79.966499999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>17183.082067</v>
+        <v>17183.082066999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.773078</v>
+        <v>4.7730779999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.743000</v>
+        <v>969.74300000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.136500</v>
+        <v>-88.136499999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>17193.949413</v>
+        <v>17193.949412999998</v>
       </c>
       <c r="AP19" s="1">
         <v>4.776097</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.992000</v>
+        <v>978.99199999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.417000</v>
+        <v>-103.417</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>17204.939272</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.779150</v>
+        <v>4.7791499999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.539000</v>
+        <v>990.53899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.408000</v>
+        <v>-125.408</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>17215.647898</v>
+        <v>17215.647897999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.782124</v>
+        <v>4.7821239999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.190000</v>
+        <v>1000.19</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.380000</v>
+        <v>-144.38</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>17226.960650</v>
+        <v>17226.960650000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.785267</v>
+        <v>4.7852670000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG19" s="1">
-        <v>-230.404000</v>
+        <v>-230.404</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>17237.998153</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.788333</v>
+        <v>4.7883329999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1126.210000</v>
+        <v>1126.21</v>
       </c>
       <c r="BL19" s="1">
-        <v>-368.409000</v>
+        <v>-368.40899999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>17248.934412</v>
+        <v>17248.934411999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.791371</v>
+        <v>4.7913709999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.040000</v>
+        <v>1259.04</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.789000</v>
+        <v>-581.78899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>17259.546147</v>
+        <v>17259.546147000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.794318</v>
+        <v>4.7943179999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.120000</v>
+        <v>1408.12</v>
       </c>
       <c r="BV19" s="1">
-        <v>-809.693000</v>
+        <v>-809.69299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>17270.422592</v>
+        <v>17270.422591999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.797340</v>
+        <v>4.7973400000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1572.720000</v>
+        <v>1572.72</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>17283.054207</v>
+        <v>17283.054207000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.800848</v>
+        <v>4.8008480000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1988.310000</v>
+        <v>1988.31</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1604.650000</v>
+        <v>-1604.65</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>17110.195461</v>
+        <v>17110.195460999999</v>
       </c>
       <c r="B20" s="1">
-        <v>4.752832</v>
+        <v>4.7528319999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>898.981000</v>
+        <v>898.98099999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.029000</v>
+        <v>-195.029</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>17120.324763</v>
+        <v>17120.324763000001</v>
       </c>
       <c r="G20" s="1">
-        <v>4.755646</v>
+        <v>4.7556459999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>915.499000</v>
+        <v>915.49900000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.467000</v>
+        <v>-165.46700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>17130.792863</v>
+        <v>17130.792862999999</v>
       </c>
       <c r="L20" s="1">
-        <v>4.758554</v>
+        <v>4.7585540000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>937.069000</v>
+        <v>937.06899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.202000</v>
+        <v>-118.202</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>17141.348684</v>
+        <v>17141.348684000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.761486</v>
+        <v>4.7614859999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>943.556000</v>
+        <v>943.55600000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.083000</v>
+        <v>-103.083</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>17151.836589</v>
+        <v>17151.836588999999</v>
       </c>
       <c r="V20" s="1">
-        <v>4.764399</v>
+        <v>4.7643990000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>949.705000</v>
+        <v>949.70500000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.456600</v>
+        <v>-89.456599999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>17162.390990</v>
+        <v>17162.39099</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.767331</v>
+        <v>4.7673310000000004</v>
       </c>
       <c r="AB20" s="1">
-        <v>956.791000</v>
+        <v>956.79100000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.046000</v>
+        <v>-80.046000000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>17172.882871</v>
+        <v>17172.882871000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.770245</v>
+        <v>4.7702450000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>961.802000</v>
+        <v>961.80200000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.982200</v>
+        <v>-79.982200000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>17183.428276</v>
+        <v>17183.428275999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.773175</v>
+        <v>4.7731750000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.744000</v>
+        <v>969.74400000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.125700</v>
+        <v>-88.125699999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>17194.377460</v>
+        <v>17194.37746</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.776216</v>
+        <v>4.7762159999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.005000</v>
+        <v>979.005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.398000</v>
+        <v>-103.398</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>17205.350987</v>
+        <v>17205.350987000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.779264</v>
+        <v>4.7792640000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.536000</v>
+        <v>990.53599999999994</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.380000</v>
+        <v>-125.38</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>17215.940537</v>
+        <v>17215.940536999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.782206</v>
+        <v>4.7822060000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.210000</v>
+        <v>1000.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.403000</v>
+        <v>-144.40299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>17227.349195</v>
+        <v>17227.349194999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.785375</v>
+        <v>4.7853750000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-230.392000</v>
+        <v>-230.392</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>17238.395452</v>
+        <v>17238.395452000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>4.788443</v>
       </c>
       <c r="BK20" s="1">
-        <v>1126.200000</v>
+        <v>1126.2</v>
       </c>
       <c r="BL20" s="1">
-        <v>-368.363000</v>
+        <v>-368.363</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>17249.333196</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.791481</v>
+        <v>4.7914810000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.110000</v>
+        <v>1259.1099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.750000</v>
+        <v>-581.75</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>17260.293828</v>
+        <v>17260.293828000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.794526</v>
+        <v>4.7945260000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.220000</v>
+        <v>1408.22</v>
       </c>
       <c r="BV20" s="1">
-        <v>-809.689000</v>
+        <v>-809.68899999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>17270.836262</v>
+        <v>17270.836262000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.797455</v>
+        <v>4.7974550000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1572.640000</v>
+        <v>1572.64</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1047.860000</v>
+        <v>-1047.8599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>17283.600799</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.801000</v>
+        <v>4.8010000000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1987.250000</v>
+        <v>1987.25</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1603.650000</v>
+        <v>-1603.65</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>17110.844723</v>
+        <v>17110.844722999998</v>
       </c>
       <c r="B21" s="1">
         <v>4.753012</v>
       </c>
       <c r="C21" s="1">
-        <v>899.161000</v>
+        <v>899.16099999999994</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.243000</v>
+        <v>-195.24299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>17120.973030</v>
+        <v>17120.973030000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.755826</v>
+        <v>4.7558259999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>915.606000</v>
+        <v>915.60599999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.260000</v>
+        <v>-165.26</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>17131.178744</v>
+        <v>17131.178744000001</v>
       </c>
       <c r="L21" s="1">
         <v>4.758661</v>
       </c>
       <c r="M21" s="1">
-        <v>937.301000</v>
+        <v>937.30100000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.254000</v>
+        <v>-118.254</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>17141.742506</v>
+        <v>17141.742505999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.761595</v>
+        <v>4.7615949999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>943.499000</v>
+        <v>943.49900000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>17152.179853</v>
+        <v>17152.179853000001</v>
       </c>
       <c r="V21" s="1">
         <v>4.764494</v>
       </c>
       <c r="W21" s="1">
-        <v>949.762000</v>
+        <v>949.76199999999994</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.424100</v>
+        <v>-89.424099999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>17162.740174</v>
+        <v>17162.740173999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.767428</v>
+        <v>4.7674279999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>956.838000</v>
+        <v>956.83799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.180600</v>
+        <v>-80.180599999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>17173.234994</v>
+        <v>17173.234993999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.770343</v>
+        <v>4.7703430000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>961.808000</v>
+        <v>961.80799999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.983900</v>
+        <v>-79.983900000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>17183.858804</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.773294</v>
+        <v>4.7732939999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.758000</v>
+        <v>969.75800000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.111100</v>
+        <v>-88.111099999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>17194.670629</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.776297</v>
+        <v>4.7762969999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.998000</v>
+        <v>978.99800000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>17205.670407</v>
+        <v>17205.670407000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.779353</v>
+        <v>4.7793530000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.523000</v>
+        <v>990.52300000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.372000</v>
+        <v>-125.372</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>17216.298649</v>
@@ -5514,1390 +5930,1391 @@
         <v>4.782305</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.383000</v>
+        <v>-144.38300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>17227.709145</v>
+        <v>17227.709145000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.785475</v>
+        <v>4.7854749999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG21" s="1">
-        <v>-230.390000</v>
+        <v>-230.39</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>17238.773402</v>
+        <v>17238.773401999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.788548</v>
+        <v>4.7885479999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1126.220000</v>
+        <v>1126.22</v>
       </c>
       <c r="BL21" s="1">
-        <v>-368.399000</v>
+        <v>-368.399</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>17249.753835</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.791598</v>
+        <v>4.7915979999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.060000</v>
+        <v>1259.06</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.742000</v>
+        <v>-581.74199999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>17260.408862</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.794558</v>
+        <v>4.7945580000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.300000</v>
+        <v>1408.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-809.522000</v>
+        <v>-809.52200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>17271.294096</v>
+        <v>17271.294096000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.797582</v>
+        <v>4.7975820000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1572.620000</v>
+        <v>1572.62</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1047.980000</v>
+        <v>-1047.98</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>17284.131550</v>
+        <v>17284.131549999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.801148</v>
+        <v>4.8011480000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1988.500000</v>
+        <v>1988.5</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1604.600000</v>
+        <v>-1604.6</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>17111.222708</v>
+        <v>17111.222708000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.753117</v>
+        <v>4.7531169999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>898.998000</v>
+        <v>898.99800000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.261000</v>
+        <v>-195.261</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>17121.356934</v>
+        <v>17121.356933999999</v>
       </c>
       <c r="G22" s="1">
-        <v>4.755932</v>
+        <v>4.7559319999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>915.651000</v>
+        <v>915.65099999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.397000</v>
+        <v>-165.39699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>17131.522968</v>
+        <v>17131.522968000001</v>
       </c>
       <c r="L22" s="1">
         <v>4.758756</v>
       </c>
       <c r="M22" s="1">
-        <v>937.135000</v>
+        <v>937.13499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.146000</v>
+        <v>-118.146</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>17142.094170</v>
+        <v>17142.09417</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.761693</v>
+        <v>4.7616930000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>943.450000</v>
+        <v>943.45</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.060000</v>
+        <v>-103.06</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>17152.532972</v>
+        <v>17152.532972000001</v>
       </c>
       <c r="V22" s="1">
-        <v>4.764592</v>
+        <v>4.7645920000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>949.754000</v>
+        <v>949.75400000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.392200</v>
+        <v>-89.392200000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>17163.154810</v>
+        <v>17163.15481</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.767543</v>
+        <v>4.7675429999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>956.994000</v>
+        <v>956.99400000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.186300</v>
+        <v>-80.186300000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>17173.657593</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.770460</v>
+        <v>4.7704599999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>961.788000</v>
+        <v>961.78800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.044500</v>
+        <v>-80.044499999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>17184.138051</v>
+        <v>17184.138051000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.773372</v>
+        <v>4.7733720000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.750000</v>
+        <v>969.75</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.131800</v>
+        <v>-88.131799999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>17195.030196</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.776397</v>
+        <v>4.7763970000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.012000</v>
+        <v>979.01199999999994</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.436000</v>
+        <v>-103.43600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>17206.032949</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.779454</v>
+        <v>4.7794540000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.507000</v>
+        <v>990.50699999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.378000</v>
+        <v>-125.378</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>17216.657751</v>
+        <v>17216.657750999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.782405</v>
+        <v>4.7824049999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.220000</v>
+        <v>1000.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.375000</v>
+        <v>-144.375</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>17228.434760</v>
+        <v>17228.43476</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.785676</v>
+        <v>4.7856759999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG22" s="1">
-        <v>-230.388000</v>
+        <v>-230.38800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17239.521865</v>
+        <v>17239.521864999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.788756</v>
+        <v>4.7887560000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1126.210000</v>
+        <v>1126.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-368.346000</v>
+        <v>-368.346</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>17250.153579</v>
+        <v>17250.153579000002</v>
       </c>
       <c r="BO22" s="1">
         <v>4.791709</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.090000</v>
+        <v>1259.0899999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.780000</v>
+        <v>-581.78</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>17260.826493</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.794674</v>
+        <v>4.7946739999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.410000</v>
+        <v>1408.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-809.568000</v>
+        <v>-809.56799999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>17271.737983</v>
+        <v>17271.737982999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.797705</v>
+        <v>4.7977049999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1572.590000</v>
+        <v>1572.59</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>17284.966819</v>
+        <v>17284.966819000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.801380</v>
+        <v>4.80138</v>
       </c>
       <c r="CE22" s="1">
-        <v>1987.220000</v>
+        <v>1987.22</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1603.270000</v>
+        <v>-1603.27</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>17111.570867</v>
+        <v>17111.570866999999</v>
       </c>
       <c r="B23" s="1">
-        <v>4.753214</v>
+        <v>4.7532139999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>898.991000</v>
+        <v>898.99099999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.260000</v>
+        <v>-195.26</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>17121.701157</v>
       </c>
       <c r="G23" s="1">
-        <v>4.756028</v>
+        <v>4.7560279999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>915.784000</v>
+        <v>915.78399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.126000</v>
+        <v>-165.126</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>17131.868151</v>
+        <v>17131.868150999999</v>
       </c>
       <c r="L23" s="1">
-        <v>4.758852</v>
+        <v>4.7588520000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>937.193000</v>
+        <v>937.19299999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.389000</v>
+        <v>-118.389</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>17142.442859</v>
+        <v>17142.442858999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.761790</v>
+        <v>4.7617900000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>943.505000</v>
+        <v>943.505</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.041000</v>
+        <v>-103.041</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>17152.951136</v>
       </c>
       <c r="V23" s="1">
-        <v>4.764709</v>
+        <v>4.7647089999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>949.758000</v>
+        <v>949.75800000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.264600</v>
+        <v>-89.264600000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>17163.454760</v>
+        <v>17163.454760000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.767626</v>
+        <v>4.7676259999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>956.874000</v>
+        <v>956.87400000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.137300</v>
+        <v>-80.137299999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>17173.935841</v>
+        <v>17173.935840999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.770538</v>
+        <v>4.7705380000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>961.781000</v>
+        <v>961.78099999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.928800</v>
+        <v>-79.928799999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>17184.486244</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.773468</v>
+        <v>4.7734680000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.729000</v>
+        <v>969.72900000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.100400</v>
+        <v>-88.100399999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>17195.389795</v>
+        <v>17195.389794999999</v>
       </c>
       <c r="AP23" s="1">
         <v>4.776497</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.994000</v>
+        <v>978.99400000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.425000</v>
+        <v>-103.425</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>17206.398033</v>
+        <v>17206.398033000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.779555</v>
+        <v>4.7795550000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.517000</v>
+        <v>990.51700000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.390000</v>
+        <v>-125.39</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>17217.378934</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.782605</v>
+        <v>4.7826050000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.210000</v>
+        <v>1000.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.381000</v>
+        <v>-144.381</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>17228.820151</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.785783</v>
+        <v>4.7857830000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-230.404000</v>
+        <v>-230.404</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>17239.898829</v>
+        <v>17239.898829000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.788861</v>
+        <v>4.7888609999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1126.180000</v>
+        <v>1126.18</v>
       </c>
       <c r="BL23" s="1">
-        <v>-368.397000</v>
+        <v>-368.39699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>17250.571210</v>
+        <v>17250.571209999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.791825</v>
+        <v>4.7918250000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.030000</v>
+        <v>1259.03</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.800000</v>
+        <v>-581.79999999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>17261.560112</v>
+        <v>17261.560111999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.794878</v>
+        <v>4.7948779999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.510000</v>
+        <v>1408.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-809.654000</v>
+        <v>-809.654</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>17272.506814</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.797919</v>
+        <v>4.7979190000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1572.510000</v>
+        <v>1572.51</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1047.980000</v>
+        <v>-1047.98</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>17285.193818</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.801443</v>
+        <v>4.8014429999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1987.640000</v>
+        <v>1987.64</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1602.980000</v>
+        <v>-1602.98</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>17111.911122</v>
+        <v>17111.911122000001</v>
       </c>
       <c r="B24" s="1">
-        <v>4.753309</v>
+        <v>4.7533089999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>899.148000</v>
+        <v>899.14800000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.079000</v>
+        <v>-195.07900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>17122.047397</v>
+        <v>17122.047396999998</v>
       </c>
       <c r="G24" s="1">
-        <v>4.756124</v>
+        <v>4.7561239999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>915.614000</v>
+        <v>915.61400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.864000</v>
+        <v>-164.864</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>17132.289255</v>
       </c>
       <c r="L24" s="1">
-        <v>4.758969</v>
+        <v>4.7589689999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>937.227000</v>
+        <v>937.22699999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.514000</v>
+        <v>-118.514</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>17142.906617</v>
+        <v>17142.906617000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.761919</v>
+        <v>4.7619189999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>943.508000</v>
+        <v>943.50800000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.940000</v>
+        <v>-102.94</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>17153.231836</v>
+        <v>17153.231835999999</v>
       </c>
       <c r="V24" s="1">
-        <v>4.764787</v>
+        <v>4.7647870000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>949.790000</v>
+        <v>949.79</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.232500</v>
+        <v>-89.232500000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>17163.801581</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.767723</v>
+        <v>4.7677230000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>956.977000</v>
+        <v>956.97699999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.117800</v>
+        <v>-80.117800000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>17174.279103</v>
+        <v>17174.279103000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.770633</v>
+        <v>4.7706330000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>961.815000</v>
+        <v>961.81500000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.963300</v>
+        <v>-79.963300000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>17184.825505</v>
+        <v>17184.825505000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.773563</v>
+        <v>4.7735630000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.739000</v>
+        <v>969.73900000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.118600</v>
+        <v>-88.118600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>17196.117426</v>
+        <v>17196.117426000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.776699</v>
+        <v>4.7766989999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.035000</v>
+        <v>979.03499999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.428000</v>
+        <v>-103.428</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>17207.123652</v>
+        <v>17207.123651999998</v>
       </c>
       <c r="AU24" s="1">
         <v>4.779757</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.523000</v>
+        <v>990.52300000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.376000</v>
+        <v>-125.376</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>17217.755398</v>
+        <v>17217.755398000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.782710</v>
+        <v>4.7827099999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.210000</v>
+        <v>1000.21</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.386000</v>
+        <v>-144.386</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>17229.180248</v>
+        <v>17229.180248000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.785883</v>
+        <v>4.7858830000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1045.940000</v>
+        <v>1045.94</v>
       </c>
       <c r="BG24" s="1">
-        <v>-230.400000</v>
+        <v>-230.4</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>17240.271785</v>
+        <v>17240.271785000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>4.788964</v>
       </c>
       <c r="BK24" s="1">
-        <v>1126.210000</v>
+        <v>1126.21</v>
       </c>
       <c r="BL24" s="1">
-        <v>-368.388000</v>
+        <v>-368.38799999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>17251.266106</v>
+        <v>17251.266105999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.792018</v>
+        <v>4.7920179999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1258.980000</v>
+        <v>1258.98</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.793000</v>
+        <v>-581.79300000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>17261.699948</v>
+        <v>17261.699948000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.794917</v>
+        <v>4.7949169999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.660000</v>
+        <v>1408.66</v>
       </c>
       <c r="BV24" s="1">
-        <v>-809.697000</v>
+        <v>-809.697</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>17272.647150</v>
+        <v>17272.647150000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.797958</v>
+        <v>4.7979580000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1572.720000</v>
+        <v>1572.72</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>17285.711276</v>
+        <v>17285.711276000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.801586</v>
+        <v>4.8015860000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.870000</v>
+        <v>1987.87</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1604.490000</v>
+        <v>-1604.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>17112.332721</v>
+        <v>17112.332720999999</v>
       </c>
       <c r="B25" s="1">
-        <v>4.753426</v>
+        <v>4.7534260000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>899.165000</v>
+        <v>899.16499999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.314000</v>
+        <v>-195.31399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>17122.468965</v>
       </c>
       <c r="G25" s="1">
-        <v>4.756241</v>
+        <v>4.7562410000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>915.704000</v>
+        <v>915.70399999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.452000</v>
+        <v>-165.452</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>17132.580902</v>
+        <v>17132.580902000002</v>
       </c>
       <c r="L25" s="1">
-        <v>4.759050</v>
+        <v>4.7590500000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>937.361000</v>
+        <v>937.36099999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.381000</v>
+        <v>-118.381</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>17143.153161</v>
+        <v>17143.153160999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.761987</v>
+        <v>4.7619870000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>943.521000</v>
+        <v>943.52099999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.918000</v>
+        <v>-102.91800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>17153.571597</v>
+        <v>17153.571596999998</v>
       </c>
       <c r="V25" s="1">
-        <v>4.764881</v>
+        <v>4.7648809999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>949.711000</v>
+        <v>949.71100000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.303500</v>
+        <v>-89.3035</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>17164.149277</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.767819</v>
+        <v>4.7678190000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.911000</v>
+        <v>956.91099999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.160600</v>
+        <v>-80.160600000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>17174.623297</v>
+        <v>17174.623296999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.770729</v>
+        <v>4.7707290000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>961.815000</v>
+        <v>961.81500000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.959100</v>
+        <v>-79.959100000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>17185.534784</v>
+        <v>17185.534783999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.773760</v>
+        <v>4.7737600000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.732000</v>
+        <v>969.73199999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.130500</v>
+        <v>-88.130499999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>17196.499843</v>
+        <v>17196.499843000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.776806</v>
+        <v>4.7768059999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.993000</v>
+        <v>978.99300000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.418000</v>
+        <v>-103.41800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>17207.520484</v>
+        <v>17207.520484000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.779867</v>
+        <v>4.7798670000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.504000</v>
+        <v>990.50400000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.379000</v>
+        <v>-125.379</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>17218.133248</v>
+        <v>17218.133247999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.782815</v>
+        <v>4.7828150000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.230000</v>
+        <v>1000.23</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.379000</v>
+        <v>-144.37899999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>17229.845382</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.786068</v>
+        <v>4.7860680000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1045.970000</v>
+        <v>1045.97</v>
       </c>
       <c r="BG25" s="1">
-        <v>-230.409000</v>
+        <v>-230.40899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>17240.954279</v>
+        <v>17240.954279000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.789154</v>
+        <v>4.7891539999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1126.230000</v>
+        <v>1126.23</v>
       </c>
       <c r="BL25" s="1">
-        <v>-368.366000</v>
+        <v>-368.36599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>17251.405514</v>
+        <v>17251.405513999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.792057</v>
+        <v>4.7920569999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.000000</v>
+        <v>1259</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.770000</v>
+        <v>-581.77</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>17262.111165</v>
+        <v>17262.111164999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.795031</v>
+        <v>4.7950309999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.740000</v>
+        <v>1408.74</v>
       </c>
       <c r="BV25" s="1">
-        <v>-809.732000</v>
+        <v>-809.73199999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>17273.068285</v>
+        <v>17273.068285000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.798075</v>
+        <v>4.7980749999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1572.650000</v>
+        <v>1572.65</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1047.900000</v>
+        <v>-1047.9000000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>17286.231580</v>
+        <v>17286.23158</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.801731</v>
+        <v>4.8017310000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1989.330000</v>
+        <v>1989.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1603.660000</v>
+        <v>-1603.66</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>17112.613953</v>
       </c>
       <c r="B26" s="1">
-        <v>4.753504</v>
+        <v>4.7535040000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>898.902000</v>
+        <v>898.90200000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.285000</v>
+        <v>-195.285</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>17122.734821</v>
+        <v>17122.734820999998</v>
       </c>
       <c r="G26" s="1">
-        <v>4.756315</v>
+        <v>4.7563149999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>915.776000</v>
+        <v>915.77599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.084000</v>
+        <v>-165.084</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>17132.926119</v>
       </c>
       <c r="L26" s="1">
-        <v>4.759146</v>
+        <v>4.7591460000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>937.193000</v>
+        <v>937.19299999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.320000</v>
+        <v>-118.32</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>17143.496868</v>
+        <v>17143.496867999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.762082</v>
+        <v>4.7620820000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>943.487000</v>
+        <v>943.48699999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.916000</v>
+        <v>-102.916</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>17153.918298</v>
+        <v>17153.918298000001</v>
       </c>
       <c r="V26" s="1">
         <v>4.764977</v>
       </c>
       <c r="W26" s="1">
-        <v>949.733000</v>
+        <v>949.73299999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.358100</v>
+        <v>-89.358099999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>17164.847147</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.768013</v>
+        <v>4.7680129999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>956.946000</v>
+        <v>956.94600000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.200300</v>
+        <v>-80.200299999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>17175.313231</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.770920</v>
+        <v>4.7709200000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>961.753000</v>
+        <v>961.75300000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.006400</v>
+        <v>-80.006399999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>17185.879536</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.773855</v>
+        <v>4.7738550000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.765000</v>
+        <v>969.76499999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.116600</v>
+        <v>-88.116600000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>17196.856962</v>
+        <v>17196.856962000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.776905</v>
+        <v>4.7769050000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.997000</v>
+        <v>978.99699999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.427000</v>
+        <v>-103.42700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>17207.881540</v>
+        <v>17207.881539999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.779967</v>
+        <v>4.7799670000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.507000</v>
+        <v>990.50699999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.370000</v>
+        <v>-125.37</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>17218.796501</v>
+        <v>17218.796501000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.782999</v>
+        <v>4.7829990000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.230000</v>
+        <v>1000.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.368000</v>
+        <v>-144.36799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>17230.301702</v>
+        <v>17230.301702000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.786195</v>
+        <v>4.7861950000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1045.950000</v>
+        <v>1045.95</v>
       </c>
       <c r="BG26" s="1">
-        <v>-230.384000</v>
+        <v>-230.38399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>17241.061943</v>
+        <v>17241.061943000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.789184</v>
+        <v>4.7891839999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1126.180000</v>
+        <v>1126.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-368.357000</v>
+        <v>-368.35700000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>17251.814186</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.792171</v>
+        <v>4.7921709999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.070000</v>
+        <v>1259.07</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.760000</v>
+        <v>-581.76</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>17262.539179</v>
+        <v>17262.539178999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.795150</v>
+        <v>4.7951499999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV26" s="1">
-        <v>-809.858000</v>
+        <v>-809.85799999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>17273.487868</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.798191</v>
+        <v>4.7981910000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1572.660000</v>
+        <v>1572.66</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1047.790000</v>
+        <v>-1047.79</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>17286.748411</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.801875</v>
+        <v>4.8018749999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1988.200000</v>
+        <v>1988.2</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1602.660000</v>
+        <v>-1602.66</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>